--- a/bin/conf/item.xlsx
+++ b/bin/conf/item.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="139">
   <si>
     <t>TypeID</t>
   </si>
@@ -59,31 +59,496 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>Buffs</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Halos</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skills</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>94</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>95</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>圆环</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>力量手套</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>敏捷便鞋</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Buffs</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Halos</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skills</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>94</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>95</t>
+  </si>
+  <si>
+    <t>智力斗篷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量腰带</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>精灵布带</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>法师长袍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>食人魔之斧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢欣之刃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔力法杖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护指环</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>圆盾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>淬毒之珠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击之爪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>锁子甲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>短棍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁意头盔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阔剑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大剑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>标枪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>秘银锤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>贤者面罩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复戒指</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度之靴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加速手套</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>抗魔斗篷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>治疗指环</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚无宝石</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸血面具</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>幽魂权杖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪烁匕首</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>96</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>97</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>98</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>99</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>101</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>102</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>103</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>104</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>105,106</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>79</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>108</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>109</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>110</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>111</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>112</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>80</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>81</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>114</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>115</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>116</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>117</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>118</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>119</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>120</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>121</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>82</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>怨灵系带</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>空灵挂件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>护腕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>相位鞋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>动力鞋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>空明杖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>坚韧球</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王者之戒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复头巾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玄冥盾牌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>勇气勋章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥术鞋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>韧鼓</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弗拉迪米尔的祭品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅肯斯姆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>洞察烟斗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>127,128</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -457,10 +922,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB3"/>
+  <dimension ref="A1:AB57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -479,13 +944,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -512,14 +977,14 @@
       <c r="AB1" s="2"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -548,17 +1013,650 @@
       <c r="AB2" s="2"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
+      <c r="A3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A32" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="E32" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B33" t="s">
+        <v>122</v>
+      </c>
+      <c r="C33" s="2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A34" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B34" t="s">
+        <v>123</v>
+      </c>
+      <c r="C34" s="2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B35" t="s">
+        <v>124</v>
+      </c>
+      <c r="C35" s="2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B36" t="s">
+        <v>125</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E36" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A37" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B37" t="s">
+        <v>126</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A38" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B38" t="s">
+        <v>127</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A39" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B39" t="s">
+        <v>128</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A40" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B40" t="s">
+        <v>129</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A41" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B41" t="s">
+        <v>130</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A42" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B42" t="s">
+        <v>131</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A43" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B43" t="s">
+        <v>132</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A44" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B44" t="s">
+        <v>133</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A45" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B45" t="s">
+        <v>134</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="E45" s="2"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A46" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B46" t="s">
+        <v>135</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A47" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B47" t="s">
+        <v>136</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A48" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B48" t="s">
+        <v>137</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="E48" s="2"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A49" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B49" t="s">
+        <v>66</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A50" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B50" t="s">
+        <v>67</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="E50" s="2"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A51" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B51" t="s">
+        <v>66</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="E51" s="2"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A52" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B52" t="s">
+        <v>67</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A53" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B53" t="s">
+        <v>66</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="E53" s="2"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A54" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B54" t="s">
+        <v>67</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="E54" s="2"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A55" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B55" t="s">
+        <v>66</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="E55" s="2"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A56" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B56" t="s">
+        <v>67</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="E56" s="2"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A57" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B57" t="s">
+        <v>66</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="E57" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/bin/conf/item.xlsx
+++ b/bin/conf/item.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="159">
   <si>
     <t>TypeID</t>
   </si>
@@ -500,55 +500,135 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>空明杖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>坚韧球</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王者之戒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复头巾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玄冥盾牌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>勇气勋章</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥术鞋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>韧鼓</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弗拉迪米尔的祭品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅肯斯姆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>洞察烟斗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>127,128</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>动力鞋</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>空明杖</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>坚韧球</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>王者之戒</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>恢复头巾</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>玄冥盾牌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>勇气勋章</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>奥术鞋</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>韧鼓</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>弗拉迪米尔的祭品</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>梅肯斯姆</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>洞察烟斗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>127,128</t>
+    <t>131</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>132</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>133</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>134</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>135</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>137</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>139</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>85</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>86</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>87</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>143</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>144</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>88</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1026</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>89</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1027</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>148</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>150</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1028</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>90</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -924,8 +1004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1397,6 +1477,7 @@
         <v>67</v>
       </c>
       <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
       <c r="E32" s="2">
         <v>83</v>
       </c>
@@ -1411,6 +1492,7 @@
       <c r="C33" s="2">
         <v>124</v>
       </c>
+      <c r="D33" s="2"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
@@ -1422,6 +1504,7 @@
       <c r="C34" s="2">
         <v>125</v>
       </c>
+      <c r="D34" s="2"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
@@ -1433,6 +1516,7 @@
       <c r="C35" s="2">
         <v>126</v>
       </c>
+      <c r="D35" s="2"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
@@ -1442,8 +1526,9 @@
         <v>125</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>138</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="D36" s="2"/>
       <c r="E36" s="2">
         <v>84</v>
       </c>
@@ -1453,9 +1538,12 @@
         <v>101</v>
       </c>
       <c r="B37" t="s">
-        <v>126</v>
-      </c>
-      <c r="C37" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D37" s="2"/>
       <c r="E37" s="2"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
@@ -1463,9 +1551,12 @@
         <v>102</v>
       </c>
       <c r="B38" t="s">
-        <v>127</v>
-      </c>
-      <c r="C38" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D38" s="2"/>
       <c r="E38" s="2"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
@@ -1473,9 +1564,12 @@
         <v>103</v>
       </c>
       <c r="B39" t="s">
-        <v>128</v>
-      </c>
-      <c r="C39" s="2"/>
+        <v>127</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D39" s="2"/>
       <c r="E39" s="2"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
@@ -1483,9 +1577,12 @@
         <v>104</v>
       </c>
       <c r="B40" t="s">
-        <v>129</v>
-      </c>
-      <c r="C40" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D40" s="2"/>
       <c r="E40" s="2"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
@@ -1493,9 +1590,14 @@
         <v>105</v>
       </c>
       <c r="B41" t="s">
-        <v>130</v>
-      </c>
-      <c r="C41" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D41" s="2">
+        <v>1025</v>
+      </c>
       <c r="E41" s="2"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
@@ -1503,49 +1605,72 @@
         <v>106</v>
       </c>
       <c r="B42" t="s">
-        <v>131</v>
-      </c>
-      <c r="C42" s="2"/>
-      <c r="E42" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
         <v>107</v>
       </c>
       <c r="B43" t="s">
-        <v>132</v>
-      </c>
-      <c r="C43" s="2"/>
-      <c r="E43" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
         <v>108</v>
       </c>
       <c r="B44" t="s">
-        <v>133</v>
-      </c>
-      <c r="C44" s="2"/>
-      <c r="E44" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
         <v>109</v>
       </c>
       <c r="B45" t="s">
-        <v>134</v>
-      </c>
-      <c r="C45" s="2"/>
-      <c r="E45" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
         <v>110</v>
       </c>
       <c r="B46" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C46" s="2"/>
+      <c r="D46" s="2" t="s">
+        <v>152</v>
+      </c>
       <c r="E46" s="2"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.15">
@@ -1553,20 +1678,34 @@
         <v>111</v>
       </c>
       <c r="B47" t="s">
-        <v>136</v>
-      </c>
-      <c r="C47" s="2"/>
-      <c r="E47" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
         <v>112</v>
       </c>
       <c r="B48" t="s">
-        <v>137</v>
-      </c>
-      <c r="C48" s="2"/>
-      <c r="E48" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
@@ -1576,6 +1715,7 @@
         <v>66</v>
       </c>
       <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
       <c r="E49" s="2"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.15">
@@ -1586,6 +1726,7 @@
         <v>67</v>
       </c>
       <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
       <c r="E50" s="2"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.15">
@@ -1596,6 +1737,7 @@
         <v>66</v>
       </c>
       <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
       <c r="E51" s="2"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.15">
@@ -1606,6 +1748,7 @@
         <v>67</v>
       </c>
       <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
       <c r="E52" s="2"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.15">
@@ -1616,6 +1759,7 @@
         <v>66</v>
       </c>
       <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
       <c r="E53" s="2"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.15">
@@ -1626,6 +1770,7 @@
         <v>67</v>
       </c>
       <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
       <c r="E54" s="2"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.15">
@@ -1636,6 +1781,7 @@
         <v>66</v>
       </c>
       <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
       <c r="E55" s="2"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.15">
@@ -1646,6 +1792,7 @@
         <v>67</v>
       </c>
       <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
       <c r="E56" s="2"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.15">
@@ -1656,6 +1803,7 @@
         <v>66</v>
       </c>
       <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
       <c r="E57" s="2"/>
     </row>
   </sheetData>

--- a/bin/conf/item.xlsx
+++ b/bin/conf/item.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="198">
   <si>
     <t>TypeID</t>
   </si>
@@ -629,6 +629,149 @@
   </si>
   <si>
     <t>90</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>原力法杖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>纷争面纱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>达贡之神力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EUL的神圣法杖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿托斯之棍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿哈利姆神杖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫怨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷新球</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>邪恶镰刀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>153</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>91</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>92</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>154</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>156</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>93</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>94</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>157</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>160</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>95</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>162</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>163</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>96</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>165</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>97</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>166</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>98</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1002,10 +1145,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB57"/>
+  <dimension ref="A1:AB70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1712,64 +1855,86 @@
         <v>113</v>
       </c>
       <c r="B49" t="s">
-        <v>66</v>
-      </c>
-      <c r="C49" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>181</v>
+      </c>
       <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
+      <c r="E49" s="2" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
         <v>114</v>
       </c>
       <c r="B50" t="s">
-        <v>67</v>
-      </c>
-      <c r="C50" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>184</v>
+      </c>
       <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
+      <c r="E50" s="2" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
         <v>115</v>
       </c>
       <c r="B51" t="s">
-        <v>66</v>
-      </c>
-      <c r="C51" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>185</v>
+      </c>
       <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
+      <c r="E51" s="2" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
         <v>116</v>
       </c>
       <c r="B52" t="s">
-        <v>67</v>
-      </c>
-      <c r="C52" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>188</v>
+      </c>
       <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
+      <c r="E52" s="2" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A53" s="2" t="s">
         <v>117</v>
       </c>
       <c r="B53" t="s">
-        <v>66</v>
-      </c>
-      <c r="C53" s="2"/>
+        <v>176</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>189</v>
+      </c>
       <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
+      <c r="E53" s="2" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A54" s="2" t="s">
         <v>118</v>
       </c>
       <c r="B54" t="s">
-        <v>67</v>
-      </c>
-      <c r="C54" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>191</v>
+      </c>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
     </row>
@@ -1778,33 +1943,110 @@
         <v>119</v>
       </c>
       <c r="B55" t="s">
-        <v>66</v>
-      </c>
-      <c r="C55" s="2"/>
+        <v>178</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>192</v>
+      </c>
       <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
+      <c r="E55" s="2" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
         <v>120</v>
       </c>
       <c r="B56" t="s">
-        <v>67</v>
-      </c>
-      <c r="C56" s="2"/>
+        <v>179</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>194</v>
+      </c>
       <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
+      <c r="E56" s="2" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
         <v>121</v>
       </c>
       <c r="B57" t="s">
-        <v>66</v>
-      </c>
-      <c r="C57" s="2"/>
+        <v>180</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>196</v>
+      </c>
       <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
+      <c r="E57" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A58" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A59" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A60" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A61" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A62" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A63" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A64" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A65" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A66" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A67" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A68" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A69" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A70" s="2" t="s">
+        <v>171</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/bin/conf/item.xlsx
+++ b/bin/conf/item.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="248">
   <si>
     <t>TypeID</t>
   </si>
@@ -772,6 +772,200 @@
   </si>
   <si>
     <t>98</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水晶剑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>碎颅锤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂战斧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚灵之刃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金箍棒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代达罗斯之殇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蝴蝶剑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>深渊之刃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑战头巾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刃甲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>先锋盾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>振魂石</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑皇杖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>西瓦的守护</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>幻影斧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>血精石</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>林肯法球</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>强袭胸甲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>恐鳌之心</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>169</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>171,172</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>173</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>102</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>103</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>177</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>104</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>178</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>179</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,101</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,101,105</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>184</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>106</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>186</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>107</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>180,181,182</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>188,181,182</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>189</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>108</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>190</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1029</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>192</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>109</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>110</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>195</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1145,10 +1339,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB70"/>
+  <dimension ref="A1:AB76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="L75" sqref="L75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1987,66 +2181,264 @@
       <c r="A58" s="2" t="s">
         <v>159</v>
       </c>
+      <c r="B58" t="s">
+        <v>198</v>
+      </c>
+      <c r="C58" s="2">
+        <v>168</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2">
+        <v>99</v>
+      </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
         <v>160</v>
       </c>
+      <c r="B59" t="s">
+        <v>199</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
         <v>161</v>
       </c>
+      <c r="B60" t="s">
+        <v>200</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A61" s="2" t="s">
         <v>162</v>
       </c>
+      <c r="B61" t="s">
+        <v>201</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A62" s="2" t="s">
         <v>163</v>
       </c>
+      <c r="B62" t="s">
+        <v>202</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A63" s="2" t="s">
         <v>164</v>
       </c>
+      <c r="B63" t="s">
+        <v>203</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B64" t="s">
+        <v>204</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A65" s="2" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B65" t="s">
+        <v>205</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B66" t="s">
+        <v>206</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A67" s="2" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B67" t="s">
+        <v>207</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B68" t="s">
+        <v>208</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B69" t="s">
+        <v>209</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A70" s="2" t="s">
         <v>171</v>
       </c>
+      <c r="B70" t="s">
+        <v>210</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A71" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B71" t="s">
+        <v>211</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A72" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B72" t="s">
+        <v>212</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A73" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B73" t="s">
+        <v>213</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A74" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B74" t="s">
+        <v>214</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A75" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B75" t="s">
+        <v>215</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A76" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B76" t="s">
+        <v>216</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/bin/conf/item.xlsx
+++ b/bin/conf/item.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="254">
   <si>
     <t>TypeID</t>
   </si>
@@ -966,6 +966,30 @@
   </si>
   <si>
     <t>195</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>198</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>111</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1030</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>200</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>203</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>112</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1341,8 +1365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="L75" sqref="L75"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E79" sqref="E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2403,9 +2427,13 @@
       <c r="B73" t="s">
         <v>213</v>
       </c>
-      <c r="C73" s="2"/>
+      <c r="C73" s="2" t="s">
+        <v>248</v>
+      </c>
       <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
+      <c r="E73" s="2" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A74" s="2" t="s">
@@ -2425,8 +2453,12 @@
       <c r="B75" t="s">
         <v>215</v>
       </c>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
+      <c r="C75" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>250</v>
+      </c>
       <c r="E75" s="2"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.15">
@@ -2436,9 +2468,13 @@
       <c r="B76" t="s">
         <v>216</v>
       </c>
-      <c r="C76" s="2"/>
+      <c r="C76" s="2" t="s">
+        <v>252</v>
+      </c>
       <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
+      <c r="E76" s="2" t="s">
+        <v>253</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/bin/conf/item.xlsx
+++ b/bin/conf/item.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="314">
   <si>
     <t>TypeID</t>
   </si>
@@ -589,6 +589,9 @@
   </si>
   <si>
     <t>87</t>
+  </si>
+  <si>
+    <t>87</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -601,6 +604,9 @@
   </si>
   <si>
     <t>88</t>
+  </si>
+  <si>
+    <t>88</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -609,6 +615,9 @@
   </si>
   <si>
     <t>89</t>
+  </si>
+  <si>
+    <t>89</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -629,6 +638,9 @@
   </si>
   <si>
     <t>90</t>
+  </si>
+  <si>
+    <t>90</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -712,10 +724,16 @@
   </si>
   <si>
     <t>91</t>
+  </si>
+  <si>
+    <t>91</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>92</t>
+  </si>
+  <si>
+    <t>92</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -728,10 +746,16 @@
   </si>
   <si>
     <t>93</t>
+  </si>
+  <si>
+    <t>93</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>94</t>
+  </si>
+  <si>
+    <t>94</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -744,6 +768,9 @@
   </si>
   <si>
     <t>95</t>
+  </si>
+  <si>
+    <t>95</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -756,6 +783,9 @@
   </si>
   <si>
     <t>96</t>
+  </si>
+  <si>
+    <t>96</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -764,6 +794,9 @@
   </si>
   <si>
     <t>97</t>
+  </si>
+  <si>
+    <t>97</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -990,6 +1023,191 @@
   </si>
   <si>
     <t>112</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>疯狂面具</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>散华</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜叉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>漩涡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>净魂之刃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黯灭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天堂之戟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>静夜对剑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>斯嘉蒂之眼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>撒旦之邪力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶魔刀锋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹰歌弓</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>掠夺者之斧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣者遗物</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>板甲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪避护符</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>振奋宝石</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>极限法球</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>神秘法杖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量之球</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>精气之球</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>活力之球</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>208</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>209</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>210</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>114</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>211</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>115,116</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>213</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>117</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>215</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>118</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>218</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>219</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>119</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>222</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>120</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1363,10 +1581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB76"/>
+  <dimension ref="A1:AB99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E79" sqref="E79"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D96" sqref="D96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1999,11 +2217,11 @@
         <v>132</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.15">
@@ -2014,11 +2232,11 @@
         <v>133</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
@@ -2030,7 +2248,7 @@
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E46" s="2"/>
     </row>
@@ -2042,13 +2260,13 @@
         <v>135</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.15">
@@ -2059,13 +2277,13 @@
         <v>136</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.15">
@@ -2073,14 +2291,14 @@
         <v>113</v>
       </c>
       <c r="B49" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="2" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.15">
@@ -2088,14 +2306,14 @@
         <v>114</v>
       </c>
       <c r="B50" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.15">
@@ -2103,14 +2321,14 @@
         <v>115</v>
       </c>
       <c r="B51" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.15">
@@ -2118,14 +2336,14 @@
         <v>116</v>
       </c>
       <c r="B52" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="2" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.15">
@@ -2133,14 +2351,14 @@
         <v>117</v>
       </c>
       <c r="B53" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" s="2" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.15">
@@ -2148,10 +2366,10 @@
         <v>118</v>
       </c>
       <c r="B54" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
@@ -2161,14 +2379,14 @@
         <v>119</v>
       </c>
       <c r="B55" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="2" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.15">
@@ -2176,14 +2394,14 @@
         <v>120</v>
       </c>
       <c r="B56" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.15">
@@ -2191,22 +2409,22 @@
         <v>121</v>
       </c>
       <c r="B57" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" s="2" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B58" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="C58" s="2">
         <v>168</v>
@@ -2218,229 +2436,229 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B59" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="2" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B60" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A61" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B61" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="2" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A62" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B62" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="2" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A63" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B63" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="2" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B64" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A65" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B65" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="2" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B66" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="2" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A67" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B67" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="2" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B68" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B69" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A70" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B70" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A71" s="2" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="B71" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A72" s="2" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="B72" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="2" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A73" s="2" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="B73" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" s="2" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A74" s="2" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="B74" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
@@ -2448,33 +2666,336 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="B75" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="E75" s="2"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A76" s="2" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="B76" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="2" t="s">
-        <v>253</v>
-      </c>
+        <v>264</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A77" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B77" t="s">
+        <v>276</v>
+      </c>
+      <c r="C77" s="2">
+        <v>206</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A78" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B78" t="s">
+        <v>277</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A79" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B79" t="s">
+        <v>278</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A80" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B80" t="s">
+        <v>279</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A81" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B81" t="s">
+        <v>280</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A82" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B82" t="s">
+        <v>281</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A83" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B83" t="s">
+        <v>282</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A84" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B84" t="s">
+        <v>283</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A85" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B85" t="s">
+        <v>284</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A86" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B86" t="s">
+        <v>285</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A87" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B87" t="s">
+        <v>286</v>
+      </c>
+      <c r="C87" s="2">
+        <v>224</v>
+      </c>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A88" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B88" t="s">
+        <v>287</v>
+      </c>
+      <c r="C88" s="2">
+        <v>225</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A89" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B89" t="s">
+        <v>288</v>
+      </c>
+      <c r="C89" s="2">
+        <v>226</v>
+      </c>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A90" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B90" t="s">
+        <v>289</v>
+      </c>
+      <c r="C90" s="2">
+        <v>227</v>
+      </c>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A91" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B91" t="s">
+        <v>290</v>
+      </c>
+      <c r="C91" s="2">
+        <v>228</v>
+      </c>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A92" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B92" t="s">
+        <v>291</v>
+      </c>
+      <c r="C92" s="2">
+        <v>229</v>
+      </c>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A93" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B93" t="s">
+        <v>292</v>
+      </c>
+      <c r="C93" s="2">
+        <v>230</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A94" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B94" t="s">
+        <v>293</v>
+      </c>
+      <c r="C94" s="2">
+        <v>231</v>
+      </c>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A95" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B95" t="s">
+        <v>294</v>
+      </c>
+      <c r="C95" s="2">
+        <v>232</v>
+      </c>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A96" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B96" t="s">
+        <v>295</v>
+      </c>
+      <c r="C96" s="2">
+        <v>233</v>
+      </c>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A97" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B97" t="s">
+        <v>296</v>
+      </c>
+      <c r="C97" s="2">
+        <v>234</v>
+      </c>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A98" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B98" t="s">
+        <v>297</v>
+      </c>
+      <c r="C98" s="2">
+        <v>235</v>
+      </c>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A99" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/bin/conf/item.xlsx
+++ b/bin/conf/item.xlsx
@@ -687,527 +687,527 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>达贡之神力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EUL的神圣法杖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿托斯之棍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿哈利姆神杖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫怨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷新球</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>邪恶镰刀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>153</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>91</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>92</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>154</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>156</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>93</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>94</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>157</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>160</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>95</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>162</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>163</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>96</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>165</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>97</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>166</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>98</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水晶剑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>碎颅锤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂战斧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚灵之刃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金箍棒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>代达罗斯之殇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蝴蝶剑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>深渊之刃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑战头巾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刃甲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>先锋盾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>振魂石</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑皇杖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>西瓦的守护</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>幻影斧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>血精石</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>林肯法球</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>强袭胸甲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>恐鳌之心</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>169</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>171,172</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>173</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>102</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>103</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>177</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>104</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>178</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>179</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,101</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,101,105</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>184</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>106</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>186</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>107</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>180,181,182</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>188,181,182</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>189</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>108</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>190</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1029</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>192</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>109</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>110</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>195</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>198</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>111</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1030</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>200</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>203</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>112</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>疯狂面具</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>散华</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜叉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>漩涡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>净魂之刃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黯灭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天堂之戟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>静夜对剑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>斯嘉蒂之眼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>撒旦之邪力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶魔刀锋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹰歌弓</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>掠夺者之斧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣者遗物</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>板甲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪避护符</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>振奋宝石</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>极限法球</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>神秘法杖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量之球</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>精气之球</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>活力之球</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>113</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>208</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>209</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>210</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>114</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>211</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>115,116</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>213</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>117</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>215</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>118</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>218</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>219</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>119</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>222</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>120</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>纷争面纱</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>达贡之神力</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EUL的神圣法杖</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>阿托斯之棍</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>阿哈利姆神杖</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>紫怨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>刷新球</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>邪恶镰刀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>153</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>91</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>92</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>154</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>156</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>93</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>94</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>157</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>160</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>95</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>162</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>163</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>96</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>165</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>97</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>166</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>98</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>水晶剑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>碎颅锤</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>狂战斧</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>虚灵之刃</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>金箍棒</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>代达罗斯之殇</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>蝴蝶剑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>深渊之刃</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>挑战头巾</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>刃甲</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>先锋盾</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>振魂石</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑皇杖</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>西瓦的守护</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>幻影斧</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>血精石</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>林肯法球</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>强袭胸甲</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>恐鳌之心</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>169</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>171,172</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>173</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>102</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>103</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>177</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>104</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>178</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>179</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>100,101</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>100,101,105</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>184</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>106</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>186</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>107</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>180,181,182</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>188,181,182</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>189</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>108</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>190</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1029</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>192</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>109</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>110</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>195</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>198</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>111</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1030</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>200</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>203</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>112</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>疯狂面具</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>散华</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>夜叉</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>漩涡</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>净魂之刃</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>黯灭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>天堂之戟</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>静夜对剑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>斯嘉蒂之眼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>撒旦之邪力</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>恶魔刀锋</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>鹰歌弓</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>掠夺者之斧</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>圣者遗物</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>板甲</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪避护符</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>振奋宝石</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>极限法球</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>神秘法杖</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>能量之球</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>精气之球</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>活力之球</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>113</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>208</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>209</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>210</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>114</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>211</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>115,116</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>213</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>117</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>215</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>118</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>218</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>219</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>119</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>222</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>120</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1583,8 +1583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D96" sqref="D96"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A85" sqref="A85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2294,11 +2294,11 @@
         <v>176</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.15">
@@ -2306,14 +2306,14 @@
         <v>114</v>
       </c>
       <c r="B50" t="s">
-        <v>177</v>
+        <v>313</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.15">
@@ -2321,14 +2321,14 @@
         <v>115</v>
       </c>
       <c r="B51" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.15">
@@ -2336,14 +2336,14 @@
         <v>116</v>
       </c>
       <c r="B52" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.15">
@@ -2351,14 +2351,14 @@
         <v>117</v>
       </c>
       <c r="B53" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.15">
@@ -2366,10 +2366,10 @@
         <v>118</v>
       </c>
       <c r="B54" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
@@ -2379,14 +2379,14 @@
         <v>119</v>
       </c>
       <c r="B55" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.15">
@@ -2394,14 +2394,14 @@
         <v>120</v>
       </c>
       <c r="B56" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.15">
@@ -2409,14 +2409,14 @@
         <v>121</v>
       </c>
       <c r="B57" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.15">
@@ -2424,7 +2424,7 @@
         <v>163</v>
       </c>
       <c r="B58" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C58" s="2">
         <v>168</v>
@@ -2439,14 +2439,14 @@
         <v>164</v>
       </c>
       <c r="B59" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.15">
@@ -2454,10 +2454,10 @@
         <v>165</v>
       </c>
       <c r="B60" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
@@ -2467,14 +2467,14 @@
         <v>166</v>
       </c>
       <c r="B61" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.15">
@@ -2482,14 +2482,14 @@
         <v>167</v>
       </c>
       <c r="B62" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.15">
@@ -2497,14 +2497,14 @@
         <v>168</v>
       </c>
       <c r="B63" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.15">
@@ -2512,10 +2512,10 @@
         <v>169</v>
       </c>
       <c r="B64" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
@@ -2525,14 +2525,14 @@
         <v>170</v>
       </c>
       <c r="B65" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.15">
@@ -2540,14 +2540,14 @@
         <v>171</v>
       </c>
       <c r="B66" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.15">
@@ -2555,14 +2555,14 @@
         <v>172</v>
       </c>
       <c r="B67" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.15">
@@ -2570,10 +2570,10 @@
         <v>173</v>
       </c>
       <c r="B68" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
@@ -2583,10 +2583,10 @@
         <v>174</v>
       </c>
       <c r="B69" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
@@ -2596,69 +2596,69 @@
         <v>175</v>
       </c>
       <c r="B70" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A71" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B71" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C71" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>255</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A72" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B72" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A73" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B73" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A74" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B74" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
@@ -2666,184 +2666,184 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B75" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E75" s="2"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A76" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B76" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A77" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B77" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C77" s="2">
         <v>206</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A78" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B78" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A79" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B79" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A80" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B80" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A81" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B81" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A82" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B82" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A83" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B83" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A84" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B84" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A85" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B85" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A86" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B86" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A87" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B87" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C87" s="2">
         <v>224</v>
@@ -2856,7 +2856,7 @@
         <v>148</v>
       </c>
       <c r="B88" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C88" s="2">
         <v>225</v>
@@ -2869,7 +2869,7 @@
         <v>152</v>
       </c>
       <c r="B89" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C89" s="2">
         <v>226</v>
@@ -2882,7 +2882,7 @@
         <v>155</v>
       </c>
       <c r="B90" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C90" s="2">
         <v>227</v>
@@ -2895,7 +2895,7 @@
         <v>161</v>
       </c>
       <c r="B91" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C91" s="2">
         <v>228</v>
@@ -2905,10 +2905,10 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A92" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B92" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C92" s="2">
         <v>229</v>
@@ -2918,10 +2918,10 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A93" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B93" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C93" s="2">
         <v>230</v>
@@ -2931,10 +2931,10 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A94" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B94" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C94" s="2">
         <v>231</v>
@@ -2944,10 +2944,10 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A95" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B95" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C95" s="2">
         <v>232</v>
@@ -2957,10 +2957,10 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A96" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B96" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C96" s="2">
         <v>233</v>
@@ -2970,10 +2970,10 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A97" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B97" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C97" s="2">
         <v>234</v>
@@ -2983,10 +2983,10 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A98" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B98" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C98" s="2">
         <v>235</v>

--- a/bin/conf/item.xlsx
+++ b/bin/conf/item.xlsx
@@ -544,18 +544,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>127,128</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>动力鞋</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>131</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>132</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -595,10 +587,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>143</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>144</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1208,6 +1196,18 @@
   </si>
   <si>
     <t>纷争面纱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>127,128,117</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>131,117</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>143,117</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1583,8 +1583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A85" sqref="A85"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2105,7 +2105,7 @@
         <v>125</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>137</v>
+        <v>311</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2">
@@ -2117,10 +2117,10 @@
         <v>101</v>
       </c>
       <c r="B37" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>139</v>
+        <v>312</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -2133,7 +2133,7 @@
         <v>126</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -2146,7 +2146,7 @@
         <v>127</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
@@ -2159,7 +2159,7 @@
         <v>128</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -2172,7 +2172,7 @@
         <v>129</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D41" s="2">
         <v>1025</v>
@@ -2187,11 +2187,11 @@
         <v>130</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">
@@ -2202,11 +2202,11 @@
         <v>131</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
@@ -2217,11 +2217,11 @@
         <v>132</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>150</v>
+        <v>313</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.15">
@@ -2232,11 +2232,11 @@
         <v>133</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E46" s="2"/>
     </row>
@@ -2260,13 +2260,13 @@
         <v>135</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.15">
@@ -2277,13 +2277,13 @@
         <v>136</v>
       </c>
       <c r="C48" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.15">
@@ -2291,14 +2291,14 @@
         <v>113</v>
       </c>
       <c r="B49" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.15">
@@ -2306,14 +2306,14 @@
         <v>114</v>
       </c>
       <c r="B50" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.15">
@@ -2321,14 +2321,14 @@
         <v>115</v>
       </c>
       <c r="B51" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.15">
@@ -2336,14 +2336,14 @@
         <v>116</v>
       </c>
       <c r="B52" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.15">
@@ -2351,14 +2351,14 @@
         <v>117</v>
       </c>
       <c r="B53" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.15">
@@ -2366,10 +2366,10 @@
         <v>118</v>
       </c>
       <c r="B54" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
@@ -2379,14 +2379,14 @@
         <v>119</v>
       </c>
       <c r="B55" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.15">
@@ -2394,14 +2394,14 @@
         <v>120</v>
       </c>
       <c r="B56" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.15">
@@ -2409,22 +2409,22 @@
         <v>121</v>
       </c>
       <c r="B57" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B58" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C58" s="2">
         <v>168</v>
@@ -2436,229 +2436,229 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B59" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B60" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A61" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B61" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A62" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B62" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A63" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B63" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B64" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A65" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B65" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B66" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A67" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B67" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B68" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B69" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A70" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B70" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A71" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B71" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A72" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B72" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A73" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B73" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A74" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B74" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
@@ -2666,184 +2666,184 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B75" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E75" s="2"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A76" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B76" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A77" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B77" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C77" s="2">
         <v>206</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A78" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B78" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A79" s="2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B79" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A80" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B80" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" s="2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A81" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B81" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A82" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B82" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A83" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B83" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A84" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B84" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A85" s="2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B85" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A86" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B86" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A87" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B87" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C87" s="2">
         <v>224</v>
@@ -2853,10 +2853,10 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A88" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B88" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C88" s="2">
         <v>225</v>
@@ -2866,10 +2866,10 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A89" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B89" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C89" s="2">
         <v>226</v>
@@ -2879,10 +2879,10 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A90" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B90" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C90" s="2">
         <v>227</v>
@@ -2892,10 +2892,10 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A91" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B91" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C91" s="2">
         <v>228</v>
@@ -2905,10 +2905,10 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A92" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B92" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C92" s="2">
         <v>229</v>
@@ -2918,10 +2918,10 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A93" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B93" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C93" s="2">
         <v>230</v>
@@ -2931,10 +2931,10 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A94" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B94" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C94" s="2">
         <v>231</v>
@@ -2944,10 +2944,10 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A95" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B95" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C95" s="2">
         <v>232</v>
@@ -2957,10 +2957,10 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A96" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B96" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C96" s="2">
         <v>233</v>
@@ -2970,10 +2970,10 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A97" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B97" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C97" s="2">
         <v>234</v>
@@ -2983,10 +2983,10 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A98" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B98" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C98" s="2">
         <v>235</v>

--- a/bin/conf/item.xlsx
+++ b/bin/conf/item.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="315">
   <si>
     <t>TypeID</t>
   </si>
@@ -1209,6 +1209,9 @@
   <si>
     <t>143,117</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxLevel</t>
   </si>
 </sst>
 </file>
@@ -1273,10 +1276,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1583,8 +1588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="J89" sqref="J89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1611,7 +1616,9 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2"/>
+      <c r="F1" s="3" t="s">
+        <v>314</v>
+      </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -1647,7 +1654,9 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="F2" s="4">
+        <v>5</v>
+      </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -1683,6 +1692,9 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
+      <c r="F3">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
@@ -1696,6 +1708,9 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
+      <c r="F4" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
@@ -1709,6 +1724,9 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
+      <c r="F5" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
@@ -1722,6 +1740,9 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
+      <c r="F6">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
@@ -1735,6 +1756,9 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
+      <c r="F7" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
@@ -1748,6 +1772,9 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
+      <c r="F8" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
@@ -1761,6 +1788,9 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
+      <c r="F9">
+        <v>5</v>
+      </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
@@ -1774,6 +1804,9 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
+      <c r="F10" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
@@ -1787,6 +1820,9 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
+      <c r="F11" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
@@ -1800,6 +1836,9 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
+      <c r="F12">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
@@ -1813,6 +1852,9 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
+      <c r="F13" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
@@ -1826,6 +1868,9 @@
       <c r="E14" s="2" t="s">
         <v>79</v>
       </c>
+      <c r="F14" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
@@ -1839,6 +1884,9 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
+      <c r="F15">
+        <v>5</v>
+      </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
@@ -1852,8 +1900,11 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F16" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>22</v>
       </c>
@@ -1865,8 +1916,11 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F17" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1932,11 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>24</v>
       </c>
@@ -1891,8 +1948,11 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F19" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>25</v>
       </c>
@@ -1904,8 +1964,11 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F20" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>26</v>
       </c>
@@ -1917,8 +1980,11 @@
       <c r="E21" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>27</v>
       </c>
@@ -1930,8 +1996,11 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F22" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>28</v>
       </c>
@@ -1943,8 +2012,11 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F23" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>29</v>
       </c>
@@ -1956,8 +2028,11 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>30</v>
       </c>
@@ -1969,8 +2044,11 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F25" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
         <v>31</v>
       </c>
@@ -1982,8 +2060,11 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F26" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
         <v>32</v>
       </c>
@@ -1995,8 +2076,11 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
         <v>33</v>
       </c>
@@ -2008,8 +2092,11 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F28" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
         <v>34</v>
       </c>
@@ -2021,8 +2108,11 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F29" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
         <v>35</v>
       </c>
@@ -2034,8 +2124,11 @@
       <c r="E30" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
         <v>36</v>
       </c>
@@ -2047,8 +2140,11 @@
       <c r="E31" s="2" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F31" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
         <v>68</v>
       </c>
@@ -2060,8 +2156,11 @@
       <c r="E32" s="2">
         <v>83</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F32" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>97</v>
       </c>
@@ -2072,8 +2171,11 @@
         <v>124</v>
       </c>
       <c r="D33" s="2"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
         <v>98</v>
       </c>
@@ -2084,8 +2186,11 @@
         <v>125</v>
       </c>
       <c r="D34" s="2"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F34" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
         <v>99</v>
       </c>
@@ -2096,8 +2201,11 @@
         <v>126</v>
       </c>
       <c r="D35" s="2"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F35" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
         <v>100</v>
       </c>
@@ -2111,8 +2219,11 @@
       <c r="E36" s="2">
         <v>84</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
         <v>101</v>
       </c>
@@ -2124,8 +2235,11 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F37" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
         <v>102</v>
       </c>
@@ -2137,8 +2251,11 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F38" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
         <v>103</v>
       </c>
@@ -2150,8 +2267,11 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
         <v>104</v>
       </c>
@@ -2163,8 +2283,11 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F40" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
         <v>105</v>
       </c>
@@ -2178,8 +2301,11 @@
         <v>1025</v>
       </c>
       <c r="E41" s="2"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F41" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
         <v>106</v>
       </c>
@@ -2193,8 +2319,11 @@
       <c r="E42" s="2" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
         <v>107</v>
       </c>
@@ -2208,8 +2337,11 @@
       <c r="E43" s="2" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F43" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
         <v>108</v>
       </c>
@@ -2223,8 +2355,11 @@
       <c r="E44" s="2" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F44" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
         <v>109</v>
       </c>
@@ -2238,8 +2373,11 @@
       <c r="E45" s="2" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
         <v>110</v>
       </c>
@@ -2251,8 +2389,11 @@
         <v>151</v>
       </c>
       <c r="E46" s="2"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F46" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
         <v>111</v>
       </c>
@@ -2268,8 +2409,11 @@
       <c r="E47" s="2" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F47" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
         <v>112</v>
       </c>
@@ -2285,8 +2429,11 @@
       <c r="E48" s="2" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
         <v>113</v>
       </c>
@@ -2300,8 +2447,11 @@
       <c r="E49" s="2" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F49" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
         <v>114</v>
       </c>
@@ -2315,8 +2465,11 @@
       <c r="E50" s="2" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F50" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
         <v>115</v>
       </c>
@@ -2330,8 +2483,11 @@
       <c r="E51" s="2" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
         <v>116</v>
       </c>
@@ -2345,8 +2501,11 @@
       <c r="E52" s="2" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F52" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" s="2" t="s">
         <v>117</v>
       </c>
@@ -2360,8 +2519,11 @@
       <c r="E53" s="2" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F53" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" s="2" t="s">
         <v>118</v>
       </c>
@@ -2373,8 +2535,11 @@
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
         <v>119</v>
       </c>
@@ -2388,8 +2553,11 @@
       <c r="E55" s="2" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F55" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
         <v>120</v>
       </c>
@@ -2403,8 +2571,11 @@
       <c r="E56" s="2" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F56" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
         <v>121</v>
       </c>
@@ -2418,8 +2589,11 @@
       <c r="E57" s="2" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
         <v>160</v>
       </c>
@@ -2433,8 +2607,11 @@
       <c r="E58" s="2">
         <v>99</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F58" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
         <v>161</v>
       </c>
@@ -2448,8 +2625,11 @@
       <c r="E59" s="2" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F59" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
         <v>162</v>
       </c>
@@ -2461,8 +2641,11 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A61" s="2" t="s">
         <v>163</v>
       </c>
@@ -2476,8 +2659,11 @@
       <c r="E61" s="2" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F61" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A62" s="2" t="s">
         <v>164</v>
       </c>
@@ -2491,8 +2677,11 @@
       <c r="E62" s="2" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F62" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A63" s="2" t="s">
         <v>165</v>
       </c>
@@ -2506,8 +2695,11 @@
       <c r="E63" s="2" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
         <v>166</v>
       </c>
@@ -2519,8 +2711,11 @@
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F64" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" s="2" t="s">
         <v>167</v>
       </c>
@@ -2534,8 +2729,11 @@
       <c r="E65" s="2" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F65" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
         <v>168</v>
       </c>
@@ -2549,8 +2747,11 @@
       <c r="E66" s="2" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A67" s="2" t="s">
         <v>169</v>
       </c>
@@ -2564,8 +2765,11 @@
       <c r="E67" s="2" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F67" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
         <v>170</v>
       </c>
@@ -2577,8 +2781,11 @@
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F68" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
         <v>171</v>
       </c>
@@ -2590,8 +2797,11 @@
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F69">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A70" s="2" t="s">
         <v>172</v>
       </c>
@@ -2605,8 +2815,11 @@
       <c r="E70" s="2" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F70" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71" s="2" t="s">
         <v>224</v>
       </c>
@@ -2622,8 +2835,11 @@
       <c r="E71" s="2" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F71" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A72" s="2" t="s">
         <v>225</v>
       </c>
@@ -2637,8 +2853,11 @@
       <c r="E72" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F72">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A73" s="2" t="s">
         <v>226</v>
       </c>
@@ -2652,8 +2871,11 @@
       <c r="E73" s="2" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F73" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A74" s="2" t="s">
         <v>227</v>
       </c>
@@ -2663,8 +2885,11 @@
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F74" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
         <v>228</v>
       </c>
@@ -2678,8 +2903,11 @@
         <v>257</v>
       </c>
       <c r="E75" s="2"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F75">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76" s="2" t="s">
         <v>229</v>
       </c>
@@ -2693,8 +2921,11 @@
       <c r="E76" s="2" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F76" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77" s="2" t="s">
         <v>261</v>
       </c>
@@ -2708,8 +2939,11 @@
       <c r="E77" s="2" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F77" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" s="2" t="s">
         <v>262</v>
       </c>
@@ -2721,8 +2955,11 @@
       </c>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F78">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79" s="2" t="s">
         <v>263</v>
       </c>
@@ -2734,8 +2971,11 @@
       </c>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F79" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" s="2" t="s">
         <v>264</v>
       </c>
@@ -2749,8 +2989,11 @@
       <c r="E80" s="2" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F80" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A81" s="2" t="s">
         <v>265</v>
       </c>
@@ -2764,8 +3007,11 @@
       <c r="E81" s="2" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F81">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82" s="2" t="s">
         <v>266</v>
       </c>
@@ -2779,8 +3025,11 @@
       <c r="E82" s="2" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F82" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A83" s="2" t="s">
         <v>267</v>
       </c>
@@ -2794,8 +3043,11 @@
       <c r="E83" s="2" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F83" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A84" s="2" t="s">
         <v>268</v>
       </c>
@@ -2807,8 +3059,11 @@
       </c>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F84">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A85" s="2" t="s">
         <v>269</v>
       </c>
@@ -2822,8 +3077,11 @@
       <c r="E85" s="2" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F85" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A86" s="2" t="s">
         <v>270</v>
       </c>
@@ -2837,8 +3095,11 @@
       <c r="E86" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F86" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A87" s="2" t="s">
         <v>271</v>
       </c>
@@ -2850,8 +3111,11 @@
       </c>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F87">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A88" s="2" t="s">
         <v>146</v>
       </c>
@@ -2863,8 +3127,11 @@
       </c>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F88" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A89" s="2" t="s">
         <v>149</v>
       </c>
@@ -2876,8 +3143,11 @@
       </c>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F89" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A90" s="2" t="s">
         <v>152</v>
       </c>
@@ -2889,8 +3159,11 @@
       </c>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F90">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A91" s="2" t="s">
         <v>158</v>
       </c>
@@ -2902,8 +3175,11 @@
       </c>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F91" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A92" s="2" t="s">
         <v>182</v>
       </c>
@@ -2915,8 +3191,11 @@
       </c>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F92" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A93" s="2" t="s">
         <v>184</v>
       </c>
@@ -2928,8 +3207,11 @@
       </c>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F93">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A94" s="2" t="s">
         <v>188</v>
       </c>
@@ -2941,8 +3223,11 @@
       </c>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F94" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A95" s="2" t="s">
         <v>190</v>
       </c>
@@ -2954,8 +3239,11 @@
       </c>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F95" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A96" s="2" t="s">
         <v>194</v>
       </c>
@@ -2967,8 +3255,11 @@
       </c>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F96">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A97" s="2" t="s">
         <v>198</v>
       </c>
@@ -2980,8 +3271,11 @@
       </c>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F97" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A98" s="2" t="s">
         <v>201</v>
       </c>
@@ -2993,8 +3287,11 @@
       </c>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F98" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A99" s="2"/>
     </row>
   </sheetData>
